--- a/docs/grafica gates vs gates.xlsx
+++ b/docs/grafica gates vs gates.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50a2dc25c595da3a/0.PFG/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{998FEC3D-647D-42D6-A285-CAA4C8DF55A9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{998FEC3D-647D-42D6-A285-CAA4C8DF55A9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{630F4511-E0E7-4255-BC9F-2C2B6CD01975}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="9825" xr2:uid="{BB1ED363-4B06-4095-A454-138CC5AE7C53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="9825" activeTab="2" xr2:uid="{BB1ED363-4B06-4095-A454-138CC5AE7C53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="bill vs bill" sheetId="1" r:id="rId1"/>
+    <sheet name="ben vs ben" sheetId="2" r:id="rId2"/>
+    <sheet name="conclusion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
   <si>
     <t>bill0</t>
   </si>
@@ -59,12 +61,57 @@
   <si>
     <t>Sin imagen</t>
   </si>
+  <si>
+    <t>ben0</t>
+  </si>
+  <si>
+    <t>ben1</t>
+  </si>
+  <si>
+    <t>ben2</t>
+  </si>
+  <si>
+    <t>ben3</t>
+  </si>
+  <si>
+    <t>ben4</t>
+  </si>
+  <si>
+    <t>ben5</t>
+  </si>
+  <si>
+    <t>ben6</t>
+  </si>
+  <si>
+    <t>ben7</t>
+  </si>
+  <si>
+    <t>ben8</t>
+  </si>
+  <si>
+    <t>ben9</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Ben Linus</t>
+  </si>
+  <si>
+    <t>billImpersonator</t>
+  </si>
+  <si>
+    <t>Archivos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +119,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,18 +162,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF76F7C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFF76F7C"/>
+      <color rgb="FFFF6699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -208,7 +397,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Hoja1!$B$2:$B$12</c:f>
+              <c:f>'bill vs bill'!$B$2:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -249,7 +438,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$12</c:f>
+              <c:f>'bill vs bill'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -293,6 +482,376 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AFB4-4BED-8D14-590C3F983005}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457236824"/>
+        <c:axId val="457231248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457236824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457231248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457231248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457236824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Confianza según</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> numero de imagenes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'ben vs ben'!$B$2:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Sin imagen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ben0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ben1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ben2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ben3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ben4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ben5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ben6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ben7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ben8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ben9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ben vs ben'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54764999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71921000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76661999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80398000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80423999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80354999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79291999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81420000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E45-400D-903A-4742C1D7E892}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -522,7 +1081,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1063,6 +2178,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B3D919-B5CF-4890-A65D-F33A1ECC812C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1378,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF206DDD-10B0-4F80-B38A-6937BABD3E92}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,4 +2634,838 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4B9B4-59BE-4998-9683-75C2A23B0042}">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.54764999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0.63109999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0.71921000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0.76661999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0.80398000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0.80423999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.80354999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0.80459999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>0.79291999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0.81420000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93E8F71-DD95-4494-9DF1-30217EF781F3}">
+  <dimension ref="B2:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.83523999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.83523999999999998</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.83523999999999998</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.80866000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.80866000000000005</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.80866000000000005</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.85214999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.85214999999999996</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.85214999999999996</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.82128000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.82128000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.82128000000000001</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.87034999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.87034999999999996</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.87034999999999996</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.88661999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.88661999999999996</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.88661999999999996</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.82094</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.82094</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.82094</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.81845000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.81845000000000001</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.81845000000000001</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.80564000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.80564000000000002</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0.80564000000000002</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0.87751000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.87751000000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.87751000000000001</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.80195000000000005</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.80195000000000005</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.80195000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.72929999999999995</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.72929999999999995</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.72929999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.76415999999999995</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.76415999999999995</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.76415999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.81979000000000002</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.81979000000000002</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.81979000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.83860000000000001</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0.83860000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0.85980000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0.60980000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.86963000000000001</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.86963000000000001</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0.86963000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0.79359999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.76265000000000005</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.76265000000000005</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0.76265000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:C24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H24 K3:L22">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+      <formula>0</formula>
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0.51"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:P3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>0</formula>
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0.51"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/grafica gates vs gates.xlsx
+++ b/docs/grafica gates vs gates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50a2dc25c595da3a/0.PFG/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive.personal\OneDrive\0.PFG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{998FEC3D-647D-42D6-A285-CAA4C8DF55A9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{630F4511-E0E7-4255-BC9F-2C2B6CD01975}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{998FEC3D-647D-42D6-A285-CAA4C8DF55A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{03888219-7348-47E0-9E2C-00FDBE09C0CB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="9825" activeTab="2" xr2:uid="{BB1ED363-4B06-4095-A454-138CC5AE7C53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="9825" activeTab="1" xr2:uid="{BB1ED363-4B06-4095-A454-138CC5AE7C53}"/>
   </bookViews>
   <sheets>
     <sheet name="bill vs bill" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -187,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -216,7 +216,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -224,7 +224,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -236,48 +236,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF76F7C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -517,6 +475,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> de imagenes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -561,6 +579,7 @@
         <c:axId val="457231248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -578,6 +597,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Confianza</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.376612715077282"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -887,6 +969,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Número de imagenes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -931,6 +1068,7 @@
         <c:axId val="457231248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -948,6 +1086,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Confianza</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.37198308544765235"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2537,7 +2738,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4B9B4-59BE-4998-9683-75C2A23B0042}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2744,7 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93E8F71-DD95-4494-9DF1-30217EF781F3}">
   <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
